--- a/xlsx/zh-tw/item/cookings_salad.xlsx
+++ b/xlsx/zh-tw/item/cookings_salad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cicini\Desktop\wiki-assets-main\xlsx\zh-tw\item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93D63E-478F-4EE6-BF1F-E936DC618849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E275D5-78C3-44D9-9C77-A0B4C8FB6703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,22 +45,6 @@
     <t>蔬菜x1</t>
   </si>
   <si>
-    <t>護盾強化&lt;br&gt;
-容易跌倒&lt;br&gt;
-MP槽不容易破裂&lt;br&gt;
-被拘束時的HP傷害&lt;br&gt;
-回避、受身的無敵時間増大&lt;br&gt;
-有毒瓦斯傷害&lt;br&gt;
-被拘束容易逃脫&lt;br&gt;
-電撃傷害&lt;br&gt;
-狀態異常容易解除度&lt;br&gt;
-火焰傷害&lt;br&gt;
-被拘束時的MP傷害&lt;br&gt;
-MP乾枯時的詠唱速度&lt;br&gt;
-狀態異常耐性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果實x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,19 +53,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔬菜&lt;br&gt;
-or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(+調味料0~1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>料理全体効果%&lt;br&gt;
-詠唱中受傷時的魔力喪失量%&lt;br&gt;
-料理全體効果&lt;br&gt;
-被拘束容易逃脫</t>
+    <t>護盾強化&lt;br&gt;容易跌倒&lt;br&gt;MP槽不容易破裂&lt;br&gt;被拘束時的HP傷害&lt;br&gt;回避、受身的無敵時間増大&lt;br&gt;有毒瓦斯傷害&lt;br&gt;被拘束容易逃脫&lt;br&gt;電撃傷害&lt;br&gt;狀態異常容易解除度&lt;br&gt;火焰傷害&lt;br&gt;被拘束時的MP傷害&lt;br&gt;MP乾枯時的詠唱速度&lt;br&gt;狀態異常耐性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料理全体効果%&lt;br&gt;詠唱中受傷時的魔力喪失量%&lt;br&gt;料理全體効果&lt;br&gt;被拘束容易逃脫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜&lt;br&gt;or</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,20 +119,20 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,7 +416,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -443,20 +427,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -464,39 +448,39 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="170.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6">
+    <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
         <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.8</v>
       </c>
     </row>

--- a/xlsx/zh-tw/item/cookings_salad.xlsx
+++ b/xlsx/zh-tw/item/cookings_salad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cicini\Desktop\wiki-assets-main\xlsx\zh-tw\item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E275D5-78C3-44D9-9C77-A0B4C8FB6703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5189B44-39E7-4528-AF6D-924ADCAD8E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="3900" windowWidth="13530" windowHeight="10970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>沙拉</t>
   </si>
@@ -57,15 +57,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>護盾強化&lt;br&gt;容易跌倒&lt;br&gt;MP槽不容易破裂&lt;br&gt;被拘束時的HP傷害&lt;br&gt;回避、受身的無敵時間増大&lt;br&gt;有毒瓦斯傷害&lt;br&gt;被拘束容易逃脫&lt;br&gt;電撃傷害&lt;br&gt;狀態異常容易解除度&lt;br&gt;火焰傷害&lt;br&gt;被拘束時的MP傷害&lt;br&gt;MP乾枯時的詠唱速度&lt;br&gt;狀態異常耐性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>料理全体効果%&lt;br&gt;詠唱中受傷時的魔力喪失量%&lt;br&gt;料理全體効果&lt;br&gt;被拘束容易逃脫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔬菜&lt;br&gt;or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p align=left&gt;65%&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p align=left&gt;護盾強化&lt;br&gt;容易跌倒&lt;br&gt;MP槽不容易破裂&lt;br&gt;被拘束時的HP傷害&lt;br&gt;回避、受身的無敵時間増大&lt;br&gt;有毒瓦斯傷害&lt;br&gt;被拘束容易逃脫&lt;br&gt;電撃傷害&lt;br&gt;狀態異常容易解除度&lt;br&gt;火焰傷害&lt;br&gt;被拘束時的MP傷害&lt;br&gt;MP乾枯時的詠唱速度&lt;br&gt;狀態異常耐性&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -449,19 +453,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
-        <v>0.65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>0.8</v>
